--- a/mtest.xlsx
+++ b/mtest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t xml:space="preserve">Verify EP criteria rule by considering boundry value for purchased amount </t>
   </si>
@@ -199,6 +199,54 @@
   </si>
   <si>
     <t>EP Eligibilty &amp; Enrollment</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test  enrollment request - POST request response </t>
+  </si>
+  <si>
+    <t>Check logs for enrollment request at event simulator,tsys gateway,tsys simulator</t>
+  </si>
+  <si>
+    <t>1.hit POST request from event simulator to tsys gateway   2.check response success code and message</t>
+  </si>
+  <si>
+    <t>1. hit post request with proper data</t>
+  </si>
+  <si>
+    <t>logs of event simulator  should inidcate that enrolmment request initiated ,logs of tsys gateway indicate that recived enrollment request.logs of tsys simualator indicate recived request and response (RTT) sent back with xml format message</t>
+  </si>
+  <si>
+    <t>Check for null /empty value</t>
+  </si>
+  <si>
+    <t>1. hit request with some field value as null/empty</t>
+  </si>
+  <si>
+    <t>1. response should be success with  200 code 2. response json message should contain  given accountid,transrefnumber excluding merchnt info              2.Merchat data given in post request should store in merchant info table correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.response should be 400 , response message should indicate about incorrect fields value. Error count should refelct about no.of incorrect fields value      2.No data recorded in db table       </t>
+  </si>
+  <si>
+    <t>Test that if request contain  invalidmerchant data then doesn’t store in db table</t>
+  </si>
+  <si>
+    <t>Test business failure case with dummy data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.pass some (hardcord) value to account id in post body request </t>
+  </si>
+  <si>
+    <t>1. response should be 200 but json message indicate about business failure  2.merchant info should store in db table 3.response message contain all fields with given accountid,transref excluding merchant info</t>
+  </si>
+  <si>
+    <t>Check logs in case business failure</t>
+  </si>
+  <si>
+    <t>1.logs at event simulaor should indcate business failure with given accountid 2.logs at tsys gateway indicate business failure.3.logs at tsys simulator contain business failure message with soap format (xml- RTT response) contain fault tag</t>
   </si>
 </sst>
 </file>
@@ -261,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -286,6 +334,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -926,12 +983,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="150">
+      <c r="B4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="165">
+      <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="120">
+      <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45">
+      <c r="B10" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="105">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="150">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/mtest.xlsx
+++ b/mtest.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="158">
   <si>
     <t xml:space="preserve">Verify EP criteria rule by considering boundry value for purchased amount </t>
   </si>
@@ -247,13 +248,256 @@
   </si>
   <si>
     <t>1.logs at event simulaor should indcate business failure with given accountid 2.logs at tsys gateway indicate business failure.3.logs at tsys simulator contain business failure message with soap format (xml- RTT response) contain fault tag</t>
+  </si>
+  <si>
+    <t>RTT (packetsenderservice)</t>
+  </si>
+  <si>
+    <t>Validate response for field transfertoType value as 2 (same as cash with payment)</t>
+  </si>
+  <si>
+    <t>Validate response for field transfertoType value as 3(installment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate response for field transfertoType value as 1 (same as cash) </t>
+  </si>
+  <si>
+    <t>1 and 2 allowed?</t>
+  </si>
+  <si>
+    <t>Check that assessFee field value always set as false (handle in code)</t>
+  </si>
+  <si>
+    <t>Validate response if assessFee value set as true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate response if transfertoTLPopt value same as store in TLP mapping,(3007,3006,9003)should return success with 200 code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate response if pass any random value ( which is not in table) to transfertoTLPopt ,should return failure with 400 code </t>
+  </si>
+  <si>
+    <t>Check schema validation if empty value given in transfertoTLPopt  ,should return failure with 404 code</t>
+  </si>
+  <si>
+    <t>Check schema validation if above maxlength value given in transfertoTLPopt  ,should return failure with 404 code</t>
+  </si>
+  <si>
+    <t>Validate response if amtPmt (installment payment) is in decimal number, should return success with 200 code</t>
+  </si>
+  <si>
+    <t>Validate response if amtPmt (installment payment) is in number (without decimal)</t>
+  </si>
+  <si>
+    <t>Validate response if amtpmt value greater than credit limit of account , should return failure</t>
+  </si>
+  <si>
+    <t>Validate response If amtPmt is in negative number , return failure response</t>
+  </si>
+  <si>
+    <t>Check schema validation if null/empty value given to amtPmt field return 404 code</t>
+  </si>
+  <si>
+    <t>Check schema validation if above maxlength value (above 13 digit) given to amtPmt field return 404 code</t>
+  </si>
+  <si>
+    <t>Validate response if nbrPmt value given correclty that  is depands upon tlpopt in request (ex- tlppot 3007 require 6mnth payment) ,then it return success with 200 code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate response if random nbrPmt value is given in request than response return failure 400 code </t>
+  </si>
+  <si>
+    <t>Validate response if negetive nbrPmt value pass in request then return failure with 400 code</t>
+  </si>
+  <si>
+    <t>Check schema validation if above maxlength (abv 3 digit) value given then return failure with 400 code</t>
+  </si>
+  <si>
+    <t>Check schema validation if null/empty value given in nbrPmt then return failure with 400 code</t>
+  </si>
+  <si>
+    <t>Check schema validation if any string type value pass in nbrpmt then failure response return</t>
+  </si>
+  <si>
+    <t>Validate response if correct transferfrom-&gt;TBAL code value given in request then response return success with 200 code</t>
+  </si>
+  <si>
+    <t>Validate response if TBAL value (out of term option table) given in request then return failure with 400 code</t>
+  </si>
+  <si>
+    <t>Check schema validation if empty/null TBAL value given in request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check schema validation if above maxlength (abv 4 digit) value in TBAL code given then return failure response </t>
+  </si>
+  <si>
+    <t>Validate response if TBAL -&gt;amtPmt (installment payment) is in number (without decimal)</t>
+  </si>
+  <si>
+    <t>Validate response if TBAL-&gt;amtPmt (installment payment) is in decimal number, should return success with 200 code</t>
+  </si>
+  <si>
+    <t>Validate response if TBAL-&gt; amtpmt value greater than credit limit of account , should return failure</t>
+  </si>
+  <si>
+    <t>Validate response If TBAL-&gt;amtPmt is in negative number , return failure response</t>
+  </si>
+  <si>
+    <t>Check schema validation if above maxlength value (above 13 digit) given to TBAL-&gt;amtPmt field return 404 code</t>
+  </si>
+  <si>
+    <t>Check schema validation if null/empty value given to TBAL-&gt;amtPmt field return 404 code</t>
+  </si>
+  <si>
+    <t>check schema validation if sinvalid datatype value given in amtpmt field then response return failure</t>
+  </si>
+  <si>
+    <t>Validate response if correct transferfrom-&gt;TLP code value given in request then response return success with 200 code</t>
+  </si>
+  <si>
+    <t>Validate response if transferfrom -&gt; tlpcode value (out of tlpmapping table) given in request then return failure with 400 code</t>
+  </si>
+  <si>
+    <t>Check schema validation if empty/null trasnferfrom-&gt;tlpcode value given in request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check schema validation if above maxlength (abv 4 digit) value in tlpcode code given then return failure response </t>
+  </si>
+  <si>
+    <t>Validate response if transferfrom-&gt;tlp -&gt;amtPmt (installment payment) is in number (without decimal)</t>
+  </si>
+  <si>
+    <t>Validate response if transferfrom-&gt;tlp -&gt;amtPmt (installment payment) is in decimal number, should return success with 200 code</t>
+  </si>
+  <si>
+    <t>Validate response if transferfrom-&gt;tlp -&gt;amtPmt value greater than credit limit of account , should return failure</t>
+  </si>
+  <si>
+    <t>Validate response If transferfrom-&gt;tlp -&gt;amtPmt is in negative number , return failure response</t>
+  </si>
+  <si>
+    <t>Check schema validation if above maxlength value (above 13 digit) given to transferfrom-&gt;tlp -&gt;amtPmt field return 404 code</t>
+  </si>
+  <si>
+    <t>Check schema validation if null/empty value given to transferfrom-&gt;tlp -&gt;amtPmt field return 404 code</t>
+  </si>
+  <si>
+    <t>check schema validation if invalid datatype value given in amtpmt field then response return failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTT response </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test that in case of success response with 200 code,AmtaccBal correctly show total amt to move </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test that in case of success response with 200 code,amtPmt correctly show installment payment  </t>
+  </si>
+  <si>
+    <t>Test that in case of success response with 200 code , nbrPmt value same as given in request.</t>
+  </si>
+  <si>
+    <t>Enrollment request -&gt; paymentEPPopt event structure</t>
+  </si>
+  <si>
+    <t>Check enrollment request received from benefit correclty form as per structure on confluence page</t>
+  </si>
+  <si>
+    <t>Validate log at tsysgateway should indicate about event initiated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate log at tsysgateway should show response return from tsys in SOAP xml format and match with RTT-tsyspacksenderservice response </t>
+  </si>
+  <si>
+    <t>Validate log at tsysgateway in case of business failure should show response in SOAP format contain proper fault code (as per clientportal)</t>
+  </si>
+  <si>
+    <t>Validate log at tsysgateway in case of technical failure should show response in soap fromat contain proper fault code (as per clientportal doc)</t>
+  </si>
+  <si>
+    <t>Validate response in case success return json message contain transactionrefNumber as given in enrollmentrequest</t>
+  </si>
+  <si>
+    <t>Validate response in case technical failure return json message show errormsg as technical failure with transactionrefNumber as given in enrollmentrequest</t>
+  </si>
+  <si>
+    <t>Validate response in case business failure return json message show errormsg as business failure with  transactionrefNumber as given in enrollmentrequest</t>
+  </si>
+  <si>
+    <t>Check schema validation if any field value given as null/empty then return failure response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate log at tsysgateway should form RTT request correclty ,should show rttfield's value as given in enrollment request  </t>
+  </si>
+  <si>
+    <t>Business failure - data condition</t>
+  </si>
+  <si>
+    <t>Purged account</t>
+  </si>
+  <si>
+    <t>account status frozen</t>
+  </si>
+  <si>
+    <t>account status sold</t>
+  </si>
+  <si>
+    <t>Account status closed by junier</t>
+  </si>
+  <si>
+    <t>account status as fraudulent</t>
+  </si>
+  <si>
+    <t>Account which have less credit limit</t>
+  </si>
+  <si>
+    <t>other condition ? Which  RTT code need to test as per client portal ? How to do conidtoning for it ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical failure </t>
+  </si>
+  <si>
+    <t>TSYSmvd mode as true -- tsys response down for sometime</t>
+  </si>
+  <si>
+    <t>TSYSMMSmode true or false ?</t>
+  </si>
+  <si>
+    <t>any other condition check ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data condition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accountrole Type primary,co-applicant,authorized </t>
+  </si>
+  <si>
+    <t>account partner id mapped with diff cpc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> account mapped different partner </t>
+  </si>
+  <si>
+    <t>account status as active,closed,frozen,sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> core-beta getretailtransaction</t>
+  </si>
+  <si>
+    <t>Validate response service on qa01 that match with qa02 correctly</t>
+  </si>
+  <si>
+    <t>REST api</t>
+  </si>
+  <si>
+    <t>Validate response return in REST service call match with qa01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +505,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -341,9 +599,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1002,7 +1261,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="150">
+    <row r="4" spans="2:4" ht="105">
       <c r="B4" s="9" t="s">
         <v>62</v>
       </c>
@@ -1013,7 +1272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="165">
+    <row r="6" spans="2:4" ht="120">
       <c r="B6" s="9" t="s">
         <v>63</v>
       </c>
@@ -1024,7 +1283,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="120">
+    <row r="8" spans="2:4" ht="90">
       <c r="B8" s="10" t="s">
         <v>67</v>
       </c>
@@ -1051,7 +1310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="150">
+    <row r="14" spans="2:4" ht="105">
       <c r="B14" t="s">
         <v>75</v>
       </c>
@@ -1066,12 +1325,427 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>